--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H2">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.11105089170435</v>
+        <v>1.635729666666667</v>
       </c>
       <c r="N2">
-        <v>1.11105089170435</v>
+        <v>4.907189</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.5314629201652572</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.5314629201652572</v>
       </c>
       <c r="Q2">
-        <v>23.31417672203984</v>
+        <v>214.208334518227</v>
       </c>
       <c r="R2">
-        <v>23.31417672203984</v>
+        <v>1927.875010664043</v>
       </c>
       <c r="S2">
-        <v>0.1712304577330646</v>
+        <v>0.2836170957420115</v>
       </c>
       <c r="T2">
-        <v>0.1712304577330646</v>
+        <v>0.2836170957420115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.8931665002294</v>
+        <v>130.955829</v>
       </c>
       <c r="H3">
-        <v>65.8931665002294</v>
+        <v>392.867487</v>
       </c>
       <c r="I3">
-        <v>0.5376940910870729</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J3">
-        <v>0.5376940910870729</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.11105089170435</v>
+        <v>1.170126666666667</v>
       </c>
       <c r="N3">
-        <v>1.11105089170435</v>
+        <v>3.51038</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3801844203860328</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3801844203860328</v>
       </c>
       <c r="Q3">
-        <v>73.21066139730307</v>
+        <v>153.23490766834</v>
       </c>
       <c r="R3">
-        <v>73.21066139730307</v>
+        <v>1379.11416901506</v>
       </c>
       <c r="S3">
-        <v>0.5376940910870729</v>
+        <v>0.2028867811186491</v>
       </c>
       <c r="T3">
-        <v>0.5376940910870729</v>
+        <v>0.2028867811186491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,427 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>130.955829</v>
+      </c>
+      <c r="H4">
+        <v>392.867487</v>
+      </c>
+      <c r="I4">
+        <v>0.5336535908353144</v>
+      </c>
+      <c r="J4">
+        <v>0.5336535908353144</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.2719306666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.8157920000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.08835265944870997</v>
+      </c>
+      <c r="P4">
+        <v>0.08835265944870996</v>
+      </c>
+      <c r="Q4">
+        <v>35.61090588385601</v>
+      </c>
+      <c r="R4">
+        <v>320.498152954704</v>
+      </c>
+      <c r="S4">
+        <v>0.04714971397465374</v>
+      </c>
+      <c r="T4">
+        <v>0.04714971397465374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>35.6706229185958</v>
-      </c>
-      <c r="H4">
-        <v>35.6706229185958</v>
-      </c>
-      <c r="I4">
-        <v>0.2910754511798626</v>
-      </c>
-      <c r="J4">
-        <v>0.2910754511798626</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.11105089170435</v>
-      </c>
-      <c r="N4">
-        <v>1.11105089170435</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>39.63187740135548</v>
-      </c>
-      <c r="R4">
-        <v>39.63187740135548</v>
-      </c>
-      <c r="S4">
-        <v>0.2910754511798626</v>
-      </c>
-      <c r="T4">
-        <v>0.2910754511798626</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>66.39541</v>
+      </c>
+      <c r="H5">
+        <v>199.18623</v>
+      </c>
+      <c r="I5">
+        <v>0.2705656497465488</v>
+      </c>
+      <c r="J5">
+        <v>0.2705656497465488</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>1.635729666666667</v>
+      </c>
+      <c r="N5">
+        <v>4.907189</v>
+      </c>
+      <c r="O5">
+        <v>0.5314629201652572</v>
+      </c>
+      <c r="P5">
+        <v>0.5314629201652572</v>
+      </c>
+      <c r="Q5">
+        <v>108.6049418674966</v>
+      </c>
+      <c r="R5">
+        <v>977.44447680747</v>
+      </c>
+      <c r="S5">
+        <v>0.143795610310711</v>
+      </c>
+      <c r="T5">
+        <v>0.143795610310711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>66.39541</v>
+      </c>
+      <c r="H6">
+        <v>199.18623</v>
+      </c>
+      <c r="I6">
+        <v>0.2705656497465488</v>
+      </c>
+      <c r="J6">
+        <v>0.2705656497465488</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.170126666666667</v>
+      </c>
+      <c r="N6">
+        <v>3.51038</v>
+      </c>
+      <c r="O6">
+        <v>0.3801844203860328</v>
+      </c>
+      <c r="P6">
+        <v>0.3801844203860328</v>
+      </c>
+      <c r="Q6">
+        <v>77.69103978526667</v>
+      </c>
+      <c r="R6">
+        <v>699.2193580674</v>
+      </c>
+      <c r="S6">
+        <v>0.102864844725262</v>
+      </c>
+      <c r="T6">
+        <v>0.102864844725262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>66.39541</v>
+      </c>
+      <c r="H7">
+        <v>199.18623</v>
+      </c>
+      <c r="I7">
+        <v>0.2705656497465488</v>
+      </c>
+      <c r="J7">
+        <v>0.2705656497465488</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2719306666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.8157920000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.08835265944870997</v>
+      </c>
+      <c r="P7">
+        <v>0.08835265944870996</v>
+      </c>
+      <c r="Q7">
+        <v>18.05494810490667</v>
+      </c>
+      <c r="R7">
+        <v>162.49453294416</v>
+      </c>
+      <c r="S7">
+        <v>0.02390519471057577</v>
+      </c>
+      <c r="T7">
+        <v>0.02390519471057577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>48.043585</v>
+      </c>
+      <c r="H8">
+        <v>144.130755</v>
+      </c>
+      <c r="I8">
+        <v>0.1957807594181367</v>
+      </c>
+      <c r="J8">
+        <v>0.1957807594181367</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>1.635729666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.907189</v>
+      </c>
+      <c r="O8">
+        <v>0.5314629201652572</v>
+      </c>
+      <c r="P8">
+        <v>0.5314629201652572</v>
+      </c>
+      <c r="Q8">
+        <v>78.58631727752166</v>
+      </c>
+      <c r="R8">
+        <v>707.2768554976949</v>
+      </c>
+      <c r="S8">
+        <v>0.1040502141125346</v>
+      </c>
+      <c r="T8">
+        <v>0.1040502141125346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>48.043585</v>
+      </c>
+      <c r="H9">
+        <v>144.130755</v>
+      </c>
+      <c r="I9">
+        <v>0.1957807594181367</v>
+      </c>
+      <c r="J9">
+        <v>0.1957807594181367</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.170126666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.51038</v>
+      </c>
+      <c r="O9">
+        <v>0.3801844203860328</v>
+      </c>
+      <c r="P9">
+        <v>0.3801844203860328</v>
+      </c>
+      <c r="Q9">
+        <v>56.21707997076667</v>
+      </c>
+      <c r="R9">
+        <v>505.9537197369</v>
+      </c>
+      <c r="S9">
+        <v>0.07443279454212165</v>
+      </c>
+      <c r="T9">
+        <v>0.07443279454212162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>48.043585</v>
+      </c>
+      <c r="H10">
+        <v>144.130755</v>
+      </c>
+      <c r="I10">
+        <v>0.1957807594181367</v>
+      </c>
+      <c r="J10">
+        <v>0.1957807594181367</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2719306666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.8157920000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.08835265944870997</v>
+      </c>
+      <c r="P10">
+        <v>0.08835265944870996</v>
+      </c>
+      <c r="Q10">
+        <v>13.06452409810667</v>
+      </c>
+      <c r="R10">
+        <v>117.58071688296</v>
+      </c>
+      <c r="S10">
+        <v>0.01729775076348045</v>
+      </c>
+      <c r="T10">
+        <v>0.01729775076348045</v>
       </c>
     </row>
   </sheetData>
